--- a/1 - Avant Projet/2 - Outils/21 - Pré planning.xlsx
+++ b/1 - Avant Projet/2 - Outils/21 - Pré planning.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Grandjean\Documents\SeriousGame\Serious-Game-MMI\1 - Avant Projet\1 - Échanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628384DB-6133-4786-AF84-3926CE360513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{3905DA43-2096-4992-AF6D-67B244846A1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Tâche</t>
   </si>
@@ -66,23 +65,40 @@
     <t>Clôture</t>
   </si>
   <si>
-    <t>Début Juin</t>
-  </si>
-  <si>
     <t>4 mois</t>
+  </si>
+  <si>
+    <t>04/06</t>
+  </si>
+  <si>
+    <t>Début janvier</t>
+  </si>
+  <si>
+    <t>3 mois</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>PRE-PLANNING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Roboto Bk"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,14 +121,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -123,6 +158,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Tâche" dataDxfId="4"/>
+    <tableColumn id="2" name="Début" dataDxfId="3"/>
+    <tableColumn id="3" name="Fin" dataDxfId="2"/>
+    <tableColumn id="4" name="Durée" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,19 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C24AD27-F0E5-4175-9394-C646B256551F}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +495,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,8 +514,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -469,184 +526,198 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>